--- a/App(Only Gpa & CGPA)/marks.xlsx
+++ b/App(Only Gpa & CGPA)/marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Grade-Fetcher\App(Only Gpa &amp; CGPA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBB8CC-F665-4678-9EAD-2DFD7C013C61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13658AF8-2D32-4A80-BAA9-FD02074CD74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,8 +62,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,14 +350,5371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1069"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="A368" sqref="A1:D1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="4"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="4"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" s="4"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" s="4"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" s="4"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11" s="4"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12" s="4"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14" s="4"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15" s="4"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" s="4"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18" s="4"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21" s="4"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22" s="4"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24" s="4"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" s="4"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" s="4"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31" s="4"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32" s="4"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" s="4"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" s="4"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" s="4"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36" s="4"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" s="4"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38" s="4"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39" s="4"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" s="4"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" s="4"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" s="4"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43" s="4"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44" s="4"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" s="4"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46" s="4"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47" s="4"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48" s="4"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49" s="4"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" s="4"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51" s="4"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52" s="4"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53" s="4"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54" s="4"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55" s="4"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56" s="4"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57" s="4"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58" s="4"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59" s="4"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60" s="4"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61" s="4"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62" s="4"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63" s="4"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64" s="4"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65" s="4"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66" s="4"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67" s="4"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68" s="4"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69" s="4"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70" s="4"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71" s="4"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72" s="4"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73" s="4"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74" s="4"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75" s="4"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76" s="4"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77" s="4"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78" s="4"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79" s="4"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80" s="4"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81" s="4"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82" s="4"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83" s="4"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84" s="4"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85" s="4"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86" s="4"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87" s="4"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88" s="4"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89" s="4"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90" s="4"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91" s="4"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92" s="4"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93" s="4"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94" s="4"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95" s="4"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96" s="4"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97" s="4"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98" s="4"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99" s="4"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100" s="4"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101" s="4"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102" s="4"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103" s="4"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104" s="4"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105" s="4"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106" s="4"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107" s="4"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108" s="4"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109" s="4"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110" s="4"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111" s="4"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112" s="4"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113" s="4"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114" s="4"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115" s="4"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116" s="4"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117" s="4"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118" s="4"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119" s="4"/>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120" s="4"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+      <c r="B121" s="4"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122" s="4"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="B123" s="4"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="B124" s="4"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="B125" s="4"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+      <c r="B126" s="4"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="B127" s="4"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="B128" s="4"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="B129" s="4"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="B130" s="4"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="B131" s="4"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="B132" s="4"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133" s="4"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="B134" s="4"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135" s="4"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="B136" s="4"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="B137" s="4"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="B138" s="4"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="B139" s="4"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140" s="4"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+      <c r="B141" s="4"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="B142" s="4"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="B143" s="4"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144" s="4"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="B145" s="4"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="B146" s="4"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="B147" s="4"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+      <c r="B148" s="4"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+      <c r="B149" s="4"/>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150" s="4"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="B151" s="4"/>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+      <c r="B152" s="4"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="B153" s="4"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+      <c r="B154" s="4"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+      <c r="B155" s="4"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+      <c r="B156" s="4"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+      <c r="B157" s="4"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="B158" s="4"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+      <c r="B159" s="4"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+      <c r="B160" s="4"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+      <c r="B161" s="4"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+      <c r="B162" s="4"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+      <c r="B163" s="4"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+      <c r="B164" s="4"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+      <c r="B165" s="4"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+      <c r="B166" s="4"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+      <c r="B167" s="4"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="B168" s="4"/>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="B169" s="4"/>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+      <c r="B170" s="4"/>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+      <c r="B171" s="4"/>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+      <c r="B172" s="4"/>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+      <c r="B173" s="4"/>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+      <c r="B174" s="4"/>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+      <c r="B175" s="4"/>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+      <c r="B176" s="4"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+      <c r="B177" s="4"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+      <c r="B178" s="4"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179"/>
+      <c r="B179" s="4"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180"/>
+      <c r="B180" s="4"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181"/>
+      <c r="B181" s="4"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+      <c r="B182" s="4"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183"/>
+      <c r="B183" s="4"/>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184"/>
+      <c r="B184" s="4"/>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+      <c r="B185" s="4"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186"/>
+      <c r="B186" s="4"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187"/>
+      <c r="B187" s="4"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188"/>
+      <c r="B188" s="4"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189"/>
+      <c r="B189" s="4"/>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190"/>
+      <c r="B190" s="4"/>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191"/>
+      <c r="B191" s="4"/>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192"/>
+      <c r="B192" s="4"/>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193"/>
+      <c r="B193" s="4"/>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194"/>
+      <c r="B194" s="4"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195"/>
+      <c r="B195" s="4"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196"/>
+      <c r="B196" s="4"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197"/>
+      <c r="B197" s="4"/>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198"/>
+      <c r="B198" s="4"/>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+      <c r="B199" s="4"/>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+      <c r="B200" s="4"/>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201"/>
+      <c r="B201" s="4"/>
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+      <c r="B202" s="4"/>
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203"/>
+      <c r="B203" s="4"/>
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204"/>
+      <c r="B204" s="4"/>
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205"/>
+      <c r="B205" s="4"/>
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206"/>
+      <c r="B206" s="4"/>
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207"/>
+      <c r="B207" s="4"/>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208"/>
+      <c r="B208" s="4"/>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+      <c r="B209" s="4"/>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210"/>
+      <c r="B210" s="4"/>
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211"/>
+      <c r="B211" s="4"/>
+      <c r="D211" s="3"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+      <c r="B212" s="4"/>
+      <c r="D212" s="3"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+      <c r="B213" s="4"/>
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214"/>
+      <c r="B214" s="4"/>
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215"/>
+      <c r="B215" s="4"/>
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216"/>
+      <c r="B216" s="4"/>
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+      <c r="B217" s="4"/>
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218"/>
+      <c r="B218" s="4"/>
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219"/>
+      <c r="B219" s="4"/>
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220"/>
+      <c r="B220" s="4"/>
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+      <c r="B221" s="4"/>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222"/>
+      <c r="B222" s="4"/>
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223"/>
+      <c r="B223" s="4"/>
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224"/>
+      <c r="B224" s="4"/>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225"/>
+      <c r="B225" s="4"/>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226"/>
+      <c r="B226" s="4"/>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227"/>
+      <c r="B227" s="4"/>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228"/>
+      <c r="B228" s="4"/>
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229"/>
+      <c r="B229" s="4"/>
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230"/>
+      <c r="B230" s="4"/>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231"/>
+      <c r="B231" s="4"/>
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232"/>
+      <c r="B232" s="4"/>
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233"/>
+      <c r="B233" s="4"/>
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234"/>
+      <c r="B234" s="4"/>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235"/>
+      <c r="B235" s="4"/>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236"/>
+      <c r="B236" s="4"/>
+      <c r="D236" s="3"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237"/>
+      <c r="B237" s="4"/>
+      <c r="D237" s="3"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238"/>
+      <c r="B238" s="4"/>
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239"/>
+      <c r="B239" s="4"/>
+      <c r="D239" s="3"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240"/>
+      <c r="B240" s="4"/>
+      <c r="D240" s="3"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241"/>
+      <c r="B241" s="4"/>
+      <c r="D241" s="3"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242"/>
+      <c r="B242" s="4"/>
+      <c r="D242" s="3"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243"/>
+      <c r="B243" s="4"/>
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244"/>
+      <c r="B244" s="4"/>
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245"/>
+      <c r="B245" s="4"/>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246"/>
+      <c r="B246" s="4"/>
+      <c r="D246" s="3"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247"/>
+      <c r="B247" s="4"/>
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248"/>
+      <c r="B248" s="4"/>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249"/>
+      <c r="B249" s="4"/>
+      <c r="D249" s="3"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250"/>
+      <c r="B250" s="4"/>
+      <c r="D250" s="3"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251"/>
+      <c r="B251" s="4"/>
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252"/>
+      <c r="B252" s="4"/>
+      <c r="D252" s="3"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253"/>
+      <c r="B253" s="4"/>
+      <c r="D253" s="3"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254"/>
+      <c r="B254" s="4"/>
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255"/>
+      <c r="B255" s="4"/>
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256"/>
+      <c r="B256" s="4"/>
+      <c r="D256" s="3"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257"/>
+      <c r="B257" s="4"/>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258"/>
+      <c r="B258" s="4"/>
+      <c r="D258" s="3"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259"/>
+      <c r="B259" s="4"/>
+      <c r="D259" s="3"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260"/>
+      <c r="B260" s="4"/>
+      <c r="D260" s="3"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261"/>
+      <c r="B261" s="4"/>
+      <c r="D261" s="3"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262"/>
+      <c r="B262" s="4"/>
+      <c r="D262" s="3"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263"/>
+      <c r="B263" s="4"/>
+      <c r="D263" s="3"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264"/>
+      <c r="B264" s="4"/>
+      <c r="D264" s="3"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265"/>
+      <c r="B265" s="4"/>
+      <c r="D265" s="3"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266"/>
+      <c r="B266" s="4"/>
+      <c r="D266" s="3"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267"/>
+      <c r="B267" s="4"/>
+      <c r="D267" s="3"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268"/>
+      <c r="B268" s="4"/>
+      <c r="D268" s="3"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269"/>
+      <c r="B269" s="4"/>
+      <c r="D269" s="3"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270"/>
+      <c r="B270" s="4"/>
+      <c r="D270" s="3"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271"/>
+      <c r="B271" s="4"/>
+      <c r="D271" s="3"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272"/>
+      <c r="B272" s="4"/>
+      <c r="D272" s="3"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273"/>
+      <c r="B273" s="4"/>
+      <c r="D273" s="3"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274"/>
+      <c r="B274" s="4"/>
+      <c r="D274" s="3"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275"/>
+      <c r="B275" s="4"/>
+      <c r="D275" s="3"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276"/>
+      <c r="B276" s="4"/>
+      <c r="D276" s="3"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277"/>
+      <c r="B277" s="4"/>
+      <c r="D277" s="3"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278"/>
+      <c r="B278" s="4"/>
+      <c r="D278" s="3"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279"/>
+      <c r="B279" s="4"/>
+      <c r="D279" s="3"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280"/>
+      <c r="B280" s="4"/>
+      <c r="D280" s="3"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281"/>
+      <c r="B281" s="4"/>
+      <c r="D281" s="3"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282"/>
+      <c r="B282" s="4"/>
+      <c r="D282" s="3"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283"/>
+      <c r="B283" s="4"/>
+      <c r="D283" s="3"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284"/>
+      <c r="B284" s="4"/>
+      <c r="D284" s="3"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285"/>
+      <c r="B285" s="4"/>
+      <c r="D285" s="3"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286"/>
+      <c r="B286" s="4"/>
+      <c r="D286" s="3"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287"/>
+      <c r="B287" s="4"/>
+      <c r="D287" s="3"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288"/>
+      <c r="B288" s="4"/>
+      <c r="D288" s="3"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289"/>
+      <c r="B289" s="4"/>
+      <c r="D289" s="3"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290"/>
+      <c r="B290" s="4"/>
+      <c r="D290" s="3"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291"/>
+      <c r="B291" s="4"/>
+      <c r="D291" s="3"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292"/>
+      <c r="B292" s="4"/>
+      <c r="D292" s="3"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293"/>
+      <c r="B293" s="4"/>
+      <c r="D293" s="3"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294"/>
+      <c r="B294" s="4"/>
+      <c r="D294" s="3"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295"/>
+      <c r="B295" s="4"/>
+      <c r="D295" s="3"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296"/>
+      <c r="B296" s="4"/>
+      <c r="D296" s="3"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297"/>
+      <c r="B297" s="4"/>
+      <c r="D297" s="3"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298"/>
+      <c r="B298" s="4"/>
+      <c r="D298" s="3"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299"/>
+      <c r="B299" s="4"/>
+      <c r="D299" s="3"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300"/>
+      <c r="B300" s="4"/>
+      <c r="D300" s="3"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301"/>
+      <c r="B301" s="4"/>
+      <c r="D301" s="3"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302"/>
+      <c r="B302" s="4"/>
+      <c r="D302" s="3"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303"/>
+      <c r="B303" s="4"/>
+      <c r="D303" s="3"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304"/>
+      <c r="B304" s="4"/>
+      <c r="D304" s="3"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305"/>
+      <c r="B305" s="4"/>
+      <c r="D305" s="3"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306"/>
+      <c r="B306" s="4"/>
+      <c r="D306" s="3"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307"/>
+      <c r="B307" s="4"/>
+      <c r="D307" s="3"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+      <c r="B308" s="4"/>
+      <c r="D308" s="3"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+      <c r="B309" s="4"/>
+      <c r="D309" s="3"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+      <c r="B310" s="4"/>
+      <c r="D310" s="3"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311"/>
+      <c r="B311" s="4"/>
+      <c r="D311" s="3"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+      <c r="B312" s="4"/>
+      <c r="D312" s="3"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+      <c r="B313" s="4"/>
+      <c r="D313" s="3"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+      <c r="B314" s="4"/>
+      <c r="D314" s="3"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+      <c r="B315" s="4"/>
+      <c r="D315" s="3"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+      <c r="B316" s="4"/>
+      <c r="D316" s="3"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+      <c r="B317" s="4"/>
+      <c r="D317" s="3"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+      <c r="B318" s="4"/>
+      <c r="D318" s="3"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+      <c r="B319" s="4"/>
+      <c r="D319" s="3"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+      <c r="B320" s="4"/>
+      <c r="D320" s="3"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321"/>
+      <c r="B321" s="4"/>
+      <c r="D321" s="3"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+      <c r="B322" s="4"/>
+      <c r="D322" s="3"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+      <c r="B323" s="4"/>
+      <c r="D323" s="3"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+      <c r="B324" s="4"/>
+      <c r="D324" s="3"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+      <c r="B325" s="4"/>
+      <c r="D325" s="3"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+      <c r="B326" s="4"/>
+      <c r="D326" s="3"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+      <c r="B327" s="4"/>
+      <c r="D327" s="3"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+      <c r="B328" s="4"/>
+      <c r="D328" s="3"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+      <c r="B329" s="4"/>
+      <c r="D329" s="3"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+      <c r="B330" s="4"/>
+      <c r="D330" s="3"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331"/>
+      <c r="B331" s="4"/>
+      <c r="D331" s="3"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+      <c r="B332" s="4"/>
+      <c r="D332" s="3"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+      <c r="B333" s="4"/>
+      <c r="D333" s="3"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+      <c r="B334" s="4"/>
+      <c r="D334" s="3"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+      <c r="B335" s="4"/>
+      <c r="D335" s="3"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336"/>
+      <c r="B336" s="4"/>
+      <c r="D336" s="3"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337"/>
+      <c r="B337" s="4"/>
+      <c r="D337" s="3"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338"/>
+      <c r="B338" s="4"/>
+      <c r="D338" s="3"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+      <c r="B339" s="4"/>
+      <c r="D339" s="3"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+      <c r="B340" s="4"/>
+      <c r="D340" s="3"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341"/>
+      <c r="B341" s="4"/>
+      <c r="D341" s="3"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342"/>
+      <c r="B342" s="4"/>
+      <c r="D342" s="3"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+      <c r="B343" s="4"/>
+      <c r="D343" s="3"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+      <c r="B344" s="4"/>
+      <c r="D344" s="3"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+      <c r="B345" s="4"/>
+      <c r="D345" s="3"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346"/>
+      <c r="B346" s="4"/>
+      <c r="D346" s="3"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347"/>
+      <c r="B347" s="4"/>
+      <c r="D347" s="3"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348"/>
+      <c r="B348" s="4"/>
+      <c r="D348" s="3"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349"/>
+      <c r="B349" s="4"/>
+      <c r="D349" s="3"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350"/>
+      <c r="B350" s="4"/>
+      <c r="D350" s="3"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351"/>
+      <c r="B351" s="4"/>
+      <c r="D351" s="3"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352"/>
+      <c r="B352" s="4"/>
+      <c r="D352" s="3"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353"/>
+      <c r="B353" s="4"/>
+      <c r="D353" s="3"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354"/>
+      <c r="B354" s="4"/>
+      <c r="D354" s="3"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355"/>
+      <c r="B355" s="4"/>
+      <c r="D355" s="3"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356"/>
+      <c r="B356" s="4"/>
+      <c r="D356" s="3"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357"/>
+      <c r="B357" s="4"/>
+      <c r="D357" s="3"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358"/>
+      <c r="B358" s="4"/>
+      <c r="D358" s="3"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359"/>
+      <c r="B359" s="4"/>
+      <c r="D359" s="3"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360"/>
+      <c r="B360" s="4"/>
+      <c r="D360" s="3"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361"/>
+      <c r="B361" s="4"/>
+      <c r="D361" s="3"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362"/>
+      <c r="B362" s="4"/>
+      <c r="D362" s="3"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363"/>
+      <c r="B363" s="4"/>
+      <c r="D363" s="3"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364"/>
+      <c r="B364" s="4"/>
+      <c r="D364" s="3"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365"/>
+      <c r="B365" s="4"/>
+      <c r="D365" s="3"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366"/>
+      <c r="B366" s="4"/>
+      <c r="D366" s="3"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367"/>
+      <c r="B367" s="4"/>
+      <c r="D367" s="3"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368"/>
+      <c r="B368" s="4"/>
+      <c r="D368" s="3"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369"/>
+      <c r="B369" s="4"/>
+      <c r="D369" s="3"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370"/>
+      <c r="B370" s="4"/>
+      <c r="D370" s="3"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371"/>
+      <c r="B371" s="4"/>
+      <c r="D371" s="3"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372"/>
+      <c r="B372" s="4"/>
+      <c r="D372" s="3"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373"/>
+      <c r="B373" s="4"/>
+      <c r="D373" s="3"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374"/>
+      <c r="B374" s="4"/>
+      <c r="D374" s="3"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375"/>
+      <c r="B375" s="4"/>
+      <c r="D375" s="3"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376"/>
+      <c r="B376" s="4"/>
+      <c r="D376" s="3"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377"/>
+      <c r="B377" s="4"/>
+      <c r="D377" s="3"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378"/>
+      <c r="B378" s="4"/>
+      <c r="D378" s="3"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379"/>
+      <c r="B379" s="4"/>
+      <c r="D379" s="3"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380"/>
+      <c r="B380" s="4"/>
+      <c r="D380" s="3"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381"/>
+      <c r="B381" s="4"/>
+      <c r="D381" s="3"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382"/>
+      <c r="B382" s="4"/>
+      <c r="D382" s="3"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383"/>
+      <c r="B383" s="4"/>
+      <c r="D383" s="3"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384"/>
+      <c r="B384" s="4"/>
+      <c r="D384" s="3"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385"/>
+      <c r="B385" s="4"/>
+      <c r="D385" s="3"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386"/>
+      <c r="B386" s="4"/>
+      <c r="D386" s="3"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387"/>
+      <c r="B387" s="4"/>
+      <c r="D387" s="3"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388"/>
+      <c r="B388" s="4"/>
+      <c r="D388" s="3"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389"/>
+      <c r="B389" s="4"/>
+      <c r="D389" s="3"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+      <c r="B390" s="4"/>
+      <c r="D390" s="3"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391"/>
+      <c r="B391" s="4"/>
+      <c r="D391" s="3"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392"/>
+      <c r="B392" s="4"/>
+      <c r="D392" s="3"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393"/>
+      <c r="B393" s="4"/>
+      <c r="D393" s="3"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394"/>
+      <c r="B394" s="4"/>
+      <c r="D394" s="3"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395"/>
+      <c r="B395" s="4"/>
+      <c r="D395" s="3"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396"/>
+      <c r="B396" s="4"/>
+      <c r="D396" s="3"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397"/>
+      <c r="B397" s="4"/>
+      <c r="D397" s="3"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398"/>
+      <c r="B398" s="4"/>
+      <c r="D398" s="3"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399"/>
+      <c r="B399" s="4"/>
+      <c r="D399" s="3"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400"/>
+      <c r="B400" s="4"/>
+      <c r="D400" s="3"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401"/>
+      <c r="B401" s="4"/>
+      <c r="D401" s="3"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402"/>
+      <c r="B402" s="4"/>
+      <c r="D402" s="3"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403"/>
+      <c r="B403" s="4"/>
+      <c r="D403" s="3"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404"/>
+      <c r="B404" s="4"/>
+      <c r="D404" s="3"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405"/>
+      <c r="B405" s="4"/>
+      <c r="D405" s="3"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406"/>
+      <c r="B406" s="4"/>
+      <c r="D406" s="3"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407"/>
+      <c r="B407" s="4"/>
+      <c r="D407" s="3"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408"/>
+      <c r="B408" s="4"/>
+      <c r="D408" s="3"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409"/>
+      <c r="B409" s="4"/>
+      <c r="D409" s="3"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410"/>
+      <c r="B410" s="4"/>
+      <c r="D410" s="3"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411"/>
+      <c r="B411" s="4"/>
+      <c r="D411" s="3"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412"/>
+      <c r="B412" s="4"/>
+      <c r="D412" s="3"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413"/>
+      <c r="B413" s="4"/>
+      <c r="D413" s="3"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414"/>
+      <c r="B414" s="4"/>
+      <c r="D414" s="3"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415"/>
+      <c r="B415" s="4"/>
+      <c r="D415" s="3"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416"/>
+      <c r="B416" s="4"/>
+      <c r="D416" s="3"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417"/>
+      <c r="B417" s="4"/>
+      <c r="D417" s="3"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418"/>
+      <c r="B418" s="4"/>
+      <c r="D418" s="3"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419"/>
+      <c r="B419" s="4"/>
+      <c r="D419" s="3"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420"/>
+      <c r="B420" s="4"/>
+      <c r="D420" s="3"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421"/>
+      <c r="B421" s="4"/>
+      <c r="D421" s="3"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422"/>
+      <c r="B422" s="4"/>
+      <c r="D422" s="3"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423"/>
+      <c r="B423" s="4"/>
+      <c r="D423" s="3"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424"/>
+      <c r="B424" s="4"/>
+      <c r="D424" s="3"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425"/>
+      <c r="B425" s="4"/>
+      <c r="D425" s="3"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426"/>
+      <c r="B426" s="4"/>
+      <c r="D426" s="3"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427"/>
+      <c r="B427" s="4"/>
+      <c r="D427" s="3"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428"/>
+      <c r="B428" s="4"/>
+      <c r="D428" s="3"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429"/>
+      <c r="B429" s="4"/>
+      <c r="D429" s="3"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430"/>
+      <c r="B430" s="4"/>
+      <c r="D430" s="3"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431"/>
+      <c r="B431" s="4"/>
+      <c r="D431" s="3"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432"/>
+      <c r="B432" s="4"/>
+      <c r="D432" s="3"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433"/>
+      <c r="B433" s="4"/>
+      <c r="D433" s="3"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434"/>
+      <c r="B434" s="4"/>
+      <c r="D434" s="3"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435"/>
+      <c r="B435" s="4"/>
+      <c r="D435" s="3"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436"/>
+      <c r="B436" s="4"/>
+      <c r="D436" s="3"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437"/>
+      <c r="B437" s="4"/>
+      <c r="D437" s="3"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438"/>
+      <c r="B438" s="4"/>
+      <c r="D438" s="3"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439"/>
+      <c r="B439" s="4"/>
+      <c r="D439" s="3"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440"/>
+      <c r="B440" s="4"/>
+      <c r="D440" s="3"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441"/>
+      <c r="B441" s="4"/>
+      <c r="D441" s="3"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442"/>
+      <c r="B442" s="4"/>
+      <c r="D442" s="3"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443"/>
+      <c r="B443" s="4"/>
+      <c r="D443" s="3"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444"/>
+      <c r="B444" s="4"/>
+      <c r="D444" s="3"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445"/>
+      <c r="B445" s="4"/>
+      <c r="D445" s="3"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446"/>
+      <c r="B446" s="4"/>
+      <c r="D446" s="3"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447"/>
+      <c r="B447" s="4"/>
+      <c r="D447" s="3"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448"/>
+      <c r="B448" s="4"/>
+      <c r="D448" s="3"/>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449"/>
+      <c r="B449" s="4"/>
+      <c r="D449" s="3"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450"/>
+      <c r="B450" s="4"/>
+      <c r="D450" s="3"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451"/>
+      <c r="B451" s="4"/>
+      <c r="D451" s="3"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452"/>
+      <c r="B452" s="4"/>
+      <c r="D452" s="3"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453"/>
+      <c r="B453" s="4"/>
+      <c r="D453" s="3"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454"/>
+      <c r="B454" s="4"/>
+      <c r="D454" s="3"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455"/>
+      <c r="B455" s="4"/>
+      <c r="D455" s="3"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456"/>
+      <c r="B456" s="4"/>
+      <c r="D456" s="3"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457"/>
+      <c r="B457" s="4"/>
+      <c r="D457" s="3"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458"/>
+      <c r="B458" s="4"/>
+      <c r="D458" s="3"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459"/>
+      <c r="B459" s="4"/>
+      <c r="D459" s="3"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460"/>
+      <c r="B460" s="4"/>
+      <c r="D460" s="3"/>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461"/>
+      <c r="B461" s="4"/>
+      <c r="D461" s="3"/>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462"/>
+      <c r="B462" s="4"/>
+      <c r="D462" s="3"/>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463"/>
+      <c r="B463" s="4"/>
+      <c r="D463" s="3"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464"/>
+      <c r="B464" s="4"/>
+      <c r="D464" s="3"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465"/>
+      <c r="B465" s="4"/>
+      <c r="D465" s="3"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466"/>
+      <c r="B466" s="4"/>
+      <c r="D466" s="3"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467"/>
+      <c r="B467" s="4"/>
+      <c r="D467" s="3"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468"/>
+      <c r="B468" s="4"/>
+      <c r="D468" s="3"/>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469"/>
+      <c r="B469" s="4"/>
+      <c r="D469" s="3"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470"/>
+      <c r="B470" s="4"/>
+      <c r="D470" s="3"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471"/>
+      <c r="B471" s="4"/>
+      <c r="D471" s="3"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472"/>
+      <c r="B472" s="4"/>
+      <c r="D472" s="3"/>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473"/>
+      <c r="B473" s="4"/>
+      <c r="D473" s="3"/>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474"/>
+      <c r="B474" s="4"/>
+      <c r="D474" s="3"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475"/>
+      <c r="B475" s="4"/>
+      <c r="D475" s="3"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476"/>
+      <c r="B476" s="4"/>
+      <c r="D476" s="3"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477"/>
+      <c r="B477" s="4"/>
+      <c r="D477" s="3"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478"/>
+      <c r="B478" s="4"/>
+      <c r="D478" s="3"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479"/>
+      <c r="B479" s="4"/>
+      <c r="D479" s="3"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480"/>
+      <c r="B480" s="4"/>
+      <c r="D480" s="3"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481"/>
+      <c r="B481" s="4"/>
+      <c r="D481" s="3"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482"/>
+      <c r="B482" s="4"/>
+      <c r="D482" s="3"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483"/>
+      <c r="B483" s="4"/>
+      <c r="D483" s="3"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484"/>
+      <c r="B484" s="4"/>
+      <c r="D484" s="3"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485"/>
+      <c r="B485" s="4"/>
+      <c r="D485" s="3"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486"/>
+      <c r="B486" s="4"/>
+      <c r="D486" s="3"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487"/>
+      <c r="B487" s="4"/>
+      <c r="D487" s="3"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488"/>
+      <c r="B488" s="4"/>
+      <c r="D488" s="3"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489"/>
+      <c r="B489" s="4"/>
+      <c r="D489" s="3"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490"/>
+      <c r="B490" s="4"/>
+      <c r="D490" s="3"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491"/>
+      <c r="B491" s="4"/>
+      <c r="D491" s="3"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492"/>
+      <c r="B492" s="4"/>
+      <c r="D492" s="3"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493"/>
+      <c r="B493" s="4"/>
+      <c r="D493" s="3"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494"/>
+      <c r="B494" s="4"/>
+      <c r="D494" s="3"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495"/>
+      <c r="B495" s="4"/>
+      <c r="D495" s="3"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496"/>
+      <c r="B496" s="4"/>
+      <c r="D496" s="3"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497"/>
+      <c r="B497" s="4"/>
+      <c r="D497" s="3"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498"/>
+      <c r="B498" s="4"/>
+      <c r="D498" s="3"/>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499"/>
+      <c r="B499" s="4"/>
+      <c r="D499" s="3"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500"/>
+      <c r="B500" s="4"/>
+      <c r="D500" s="3"/>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501"/>
+      <c r="B501" s="4"/>
+      <c r="D501" s="3"/>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502"/>
+      <c r="B502" s="4"/>
+      <c r="D502" s="3"/>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503"/>
+      <c r="B503" s="4"/>
+      <c r="D503" s="3"/>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504"/>
+      <c r="B504" s="4"/>
+      <c r="D504" s="3"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505"/>
+      <c r="B505" s="4"/>
+      <c r="D505" s="3"/>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506"/>
+      <c r="B506" s="4"/>
+      <c r="D506" s="3"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507"/>
+      <c r="B507" s="4"/>
+      <c r="D507" s="3"/>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508"/>
+      <c r="B508" s="4"/>
+      <c r="D508" s="3"/>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509"/>
+      <c r="B509" s="4"/>
+      <c r="D509" s="3"/>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510"/>
+      <c r="B510" s="4"/>
+      <c r="D510" s="3"/>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511"/>
+      <c r="B511" s="4"/>
+      <c r="D511" s="3"/>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512"/>
+      <c r="B512" s="4"/>
+      <c r="D512" s="3"/>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513"/>
+      <c r="B513" s="4"/>
+      <c r="D513" s="3"/>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514"/>
+      <c r="B514" s="4"/>
+      <c r="D514" s="3"/>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515"/>
+      <c r="B515" s="4"/>
+      <c r="D515" s="3"/>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516"/>
+      <c r="B516" s="4"/>
+      <c r="D516" s="3"/>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517"/>
+      <c r="B517" s="4"/>
+      <c r="D517" s="3"/>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518"/>
+      <c r="B518" s="4"/>
+      <c r="D518" s="3"/>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519"/>
+      <c r="B519" s="4"/>
+      <c r="D519" s="3"/>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520"/>
+      <c r="B520" s="4"/>
+      <c r="D520" s="3"/>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521"/>
+      <c r="B521" s="4"/>
+      <c r="D521" s="3"/>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522"/>
+      <c r="B522" s="4"/>
+      <c r="D522" s="3"/>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523"/>
+      <c r="B523" s="4"/>
+      <c r="D523" s="3"/>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524"/>
+      <c r="B524" s="4"/>
+      <c r="D524" s="3"/>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525"/>
+      <c r="B525" s="4"/>
+      <c r="D525" s="3"/>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526"/>
+      <c r="B526" s="4"/>
+      <c r="D526" s="3"/>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527"/>
+      <c r="B527" s="4"/>
+      <c r="D527" s="3"/>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528"/>
+      <c r="B528" s="4"/>
+      <c r="D528" s="3"/>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529"/>
+      <c r="B529" s="4"/>
+      <c r="D529" s="3"/>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530"/>
+      <c r="B530" s="4"/>
+      <c r="D530" s="3"/>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531"/>
+      <c r="B531" s="4"/>
+      <c r="D531" s="3"/>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532"/>
+      <c r="B532" s="4"/>
+      <c r="D532" s="3"/>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533"/>
+      <c r="B533" s="4"/>
+      <c r="D533" s="3"/>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534"/>
+      <c r="B534" s="4"/>
+      <c r="D534" s="3"/>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535"/>
+      <c r="B535" s="4"/>
+      <c r="D535" s="3"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536"/>
+      <c r="B536" s="4"/>
+      <c r="D536" s="3"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537"/>
+      <c r="B537" s="4"/>
+      <c r="D537" s="3"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538"/>
+      <c r="B538" s="4"/>
+      <c r="D538" s="3"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539"/>
+      <c r="B539" s="4"/>
+      <c r="D539" s="3"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540"/>
+      <c r="B540" s="4"/>
+      <c r="D540" s="3"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541"/>
+      <c r="B541" s="4"/>
+      <c r="D541" s="3"/>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542"/>
+      <c r="B542" s="4"/>
+      <c r="D542" s="3"/>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543"/>
+      <c r="B543" s="4"/>
+      <c r="D543" s="3"/>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544"/>
+      <c r="B544" s="4"/>
+      <c r="D544" s="3"/>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545"/>
+      <c r="B545" s="4"/>
+      <c r="D545" s="3"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546"/>
+      <c r="B546" s="4"/>
+      <c r="D546" s="3"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547"/>
+      <c r="B547" s="4"/>
+      <c r="D547" s="3"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548"/>
+      <c r="B548" s="4"/>
+      <c r="D548" s="3"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549"/>
+      <c r="B549" s="4"/>
+      <c r="D549" s="3"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550"/>
+      <c r="B550" s="4"/>
+      <c r="D550" s="3"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551"/>
+      <c r="B551" s="4"/>
+      <c r="D551" s="3"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552"/>
+      <c r="B552" s="4"/>
+      <c r="D552" s="3"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553"/>
+      <c r="B553" s="4"/>
+      <c r="D553" s="3"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554"/>
+      <c r="B554" s="4"/>
+      <c r="D554" s="3"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555"/>
+      <c r="B555" s="4"/>
+      <c r="D555" s="3"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556"/>
+      <c r="B556" s="4"/>
+      <c r="D556" s="3"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557"/>
+      <c r="B557" s="4"/>
+      <c r="D557" s="3"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558"/>
+      <c r="B558" s="4"/>
+      <c r="D558" s="3"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559"/>
+      <c r="B559" s="4"/>
+      <c r="D559" s="3"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560"/>
+      <c r="B560" s="4"/>
+      <c r="D560" s="3"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561"/>
+      <c r="B561" s="4"/>
+      <c r="D561" s="3"/>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562"/>
+      <c r="B562" s="4"/>
+      <c r="D562" s="3"/>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563"/>
+      <c r="B563" s="4"/>
+      <c r="D563" s="3"/>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564"/>
+      <c r="B564" s="4"/>
+      <c r="D564" s="3"/>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565"/>
+      <c r="B565" s="4"/>
+      <c r="D565" s="3"/>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566"/>
+      <c r="B566" s="4"/>
+      <c r="D566" s="3"/>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567"/>
+      <c r="B567" s="4"/>
+      <c r="D567" s="3"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568"/>
+      <c r="B568" s="4"/>
+      <c r="D568" s="3"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569"/>
+      <c r="B569" s="4"/>
+      <c r="D569" s="3"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570"/>
+      <c r="B570" s="4"/>
+      <c r="D570" s="3"/>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571"/>
+      <c r="B571" s="4"/>
+      <c r="D571" s="3"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572"/>
+      <c r="B572" s="4"/>
+      <c r="D572" s="3"/>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573"/>
+      <c r="B573" s="4"/>
+      <c r="D573" s="3"/>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574"/>
+      <c r="B574" s="4"/>
+      <c r="D574" s="3"/>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575"/>
+      <c r="B575" s="4"/>
+      <c r="D575" s="3"/>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576"/>
+      <c r="B576" s="4"/>
+      <c r="D576" s="3"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577"/>
+      <c r="B577" s="4"/>
+      <c r="D577" s="3"/>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578"/>
+      <c r="B578" s="4"/>
+      <c r="D578" s="3"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579"/>
+      <c r="B579" s="4"/>
+      <c r="D579" s="3"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580"/>
+      <c r="B580" s="4"/>
+      <c r="D580" s="3"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581"/>
+      <c r="B581" s="4"/>
+      <c r="D581" s="3"/>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582"/>
+      <c r="B582" s="4"/>
+      <c r="D582" s="3"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583"/>
+      <c r="B583" s="4"/>
+      <c r="D583" s="3"/>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584"/>
+      <c r="B584" s="4"/>
+      <c r="D584" s="3"/>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585"/>
+      <c r="B585" s="4"/>
+      <c r="D585" s="3"/>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586"/>
+      <c r="B586" s="4"/>
+      <c r="D586" s="3"/>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587"/>
+      <c r="B587" s="4"/>
+      <c r="D587" s="3"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588"/>
+      <c r="B588" s="4"/>
+      <c r="D588" s="3"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589"/>
+      <c r="B589" s="4"/>
+      <c r="D589" s="3"/>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590"/>
+      <c r="B590" s="4"/>
+      <c r="D590" s="3"/>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591"/>
+      <c r="B591" s="4"/>
+      <c r="D591" s="3"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592"/>
+      <c r="B592" s="4"/>
+      <c r="D592" s="3"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593"/>
+      <c r="B593" s="4"/>
+      <c r="D593" s="3"/>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594"/>
+      <c r="B594" s="4"/>
+      <c r="D594" s="3"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595"/>
+      <c r="B595" s="4"/>
+      <c r="D595" s="3"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596"/>
+      <c r="B596" s="4"/>
+      <c r="D596" s="3"/>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597"/>
+      <c r="B597" s="4"/>
+      <c r="D597" s="3"/>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598"/>
+      <c r="B598" s="4"/>
+      <c r="D598" s="3"/>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599"/>
+      <c r="B599" s="4"/>
+      <c r="D599" s="3"/>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600"/>
+      <c r="B600" s="4"/>
+      <c r="D600" s="3"/>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601"/>
+      <c r="B601" s="4"/>
+      <c r="D601" s="3"/>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602"/>
+      <c r="B602" s="4"/>
+      <c r="D602" s="3"/>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603"/>
+      <c r="B603" s="4"/>
+      <c r="D603" s="3"/>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604"/>
+      <c r="B604" s="4"/>
+      <c r="D604" s="3"/>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605"/>
+      <c r="B605" s="4"/>
+      <c r="D605" s="3"/>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606"/>
+      <c r="B606" s="4"/>
+      <c r="D606" s="3"/>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607"/>
+      <c r="B607" s="4"/>
+      <c r="D607" s="3"/>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608"/>
+      <c r="B608" s="4"/>
+      <c r="D608" s="3"/>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609"/>
+      <c r="B609" s="4"/>
+      <c r="D609" s="3"/>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610"/>
+      <c r="B610" s="4"/>
+      <c r="D610" s="3"/>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611"/>
+      <c r="B611" s="4"/>
+      <c r="D611" s="3"/>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612"/>
+      <c r="B612" s="4"/>
+      <c r="D612" s="3"/>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613"/>
+      <c r="B613" s="4"/>
+      <c r="D613" s="3"/>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614"/>
+      <c r="B614" s="4"/>
+      <c r="D614" s="3"/>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615"/>
+      <c r="B615" s="4"/>
+      <c r="D615" s="3"/>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616"/>
+      <c r="B616" s="4"/>
+      <c r="D616" s="3"/>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617"/>
+      <c r="B617" s="4"/>
+      <c r="D617" s="3"/>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618"/>
+      <c r="B618" s="4"/>
+      <c r="D618" s="3"/>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619"/>
+      <c r="B619" s="4"/>
+      <c r="D619" s="3"/>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620"/>
+      <c r="B620" s="4"/>
+      <c r="D620" s="3"/>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621"/>
+      <c r="B621" s="4"/>
+      <c r="D621" s="3"/>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622"/>
+      <c r="B622" s="4"/>
+      <c r="D622" s="3"/>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623"/>
+      <c r="B623" s="4"/>
+      <c r="D623" s="3"/>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624"/>
+      <c r="B624" s="4"/>
+      <c r="D624" s="3"/>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625"/>
+      <c r="B625" s="4"/>
+      <c r="D625" s="3"/>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626"/>
+      <c r="B626" s="4"/>
+      <c r="D626" s="3"/>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627"/>
+      <c r="B627" s="4"/>
+      <c r="D627" s="3"/>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628"/>
+      <c r="B628" s="4"/>
+      <c r="D628" s="3"/>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629"/>
+      <c r="B629" s="4"/>
+      <c r="D629" s="3"/>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630"/>
+      <c r="B630" s="4"/>
+      <c r="D630" s="3"/>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631"/>
+      <c r="B631" s="4"/>
+      <c r="D631" s="3"/>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632"/>
+      <c r="B632" s="4"/>
+      <c r="D632" s="3"/>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633"/>
+      <c r="B633" s="4"/>
+      <c r="D633" s="3"/>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634"/>
+      <c r="B634" s="4"/>
+      <c r="D634" s="3"/>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635"/>
+      <c r="B635" s="4"/>
+      <c r="D635" s="3"/>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636"/>
+      <c r="B636" s="4"/>
+      <c r="D636" s="3"/>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637"/>
+      <c r="B637" s="4"/>
+      <c r="D637" s="3"/>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638"/>
+      <c r="B638" s="4"/>
+      <c r="D638" s="3"/>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639"/>
+      <c r="B639" s="4"/>
+      <c r="D639" s="3"/>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640"/>
+      <c r="B640" s="4"/>
+      <c r="D640" s="3"/>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641"/>
+      <c r="B641" s="4"/>
+      <c r="D641" s="3"/>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642"/>
+      <c r="B642" s="4"/>
+      <c r="D642" s="3"/>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643"/>
+      <c r="B643" s="4"/>
+      <c r="D643" s="3"/>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644"/>
+      <c r="B644" s="4"/>
+      <c r="D644" s="3"/>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645"/>
+      <c r="B645" s="4"/>
+      <c r="D645" s="3"/>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646"/>
+      <c r="B646" s="4"/>
+      <c r="D646" s="3"/>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647"/>
+      <c r="B647" s="4"/>
+      <c r="D647" s="3"/>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648"/>
+      <c r="B648" s="4"/>
+      <c r="D648" s="3"/>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649"/>
+      <c r="B649" s="4"/>
+      <c r="D649" s="3"/>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650"/>
+      <c r="B650" s="4"/>
+      <c r="D650" s="3"/>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651"/>
+      <c r="B651" s="4"/>
+      <c r="D651" s="3"/>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652"/>
+      <c r="B652" s="4"/>
+      <c r="D652" s="3"/>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653"/>
+      <c r="B653" s="4"/>
+      <c r="D653" s="3"/>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654"/>
+      <c r="B654" s="4"/>
+      <c r="D654" s="3"/>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655"/>
+      <c r="B655" s="4"/>
+      <c r="D655" s="3"/>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656"/>
+      <c r="B656" s="4"/>
+      <c r="D656" s="3"/>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657"/>
+      <c r="B657" s="4"/>
+      <c r="D657" s="3"/>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658"/>
+      <c r="B658" s="4"/>
+      <c r="D658" s="3"/>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659"/>
+      <c r="B659" s="4"/>
+      <c r="D659" s="3"/>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660"/>
+      <c r="B660" s="4"/>
+      <c r="D660" s="3"/>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661"/>
+      <c r="B661" s="4"/>
+      <c r="D661" s="3"/>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662"/>
+      <c r="B662" s="4"/>
+      <c r="D662" s="3"/>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663"/>
+      <c r="B663" s="4"/>
+      <c r="D663" s="3"/>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664"/>
+      <c r="B664" s="4"/>
+      <c r="D664" s="3"/>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665"/>
+      <c r="B665" s="4"/>
+      <c r="D665" s="3"/>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666"/>
+      <c r="B666" s="4"/>
+      <c r="D666" s="3"/>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667"/>
+      <c r="B667" s="4"/>
+      <c r="D667" s="3"/>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668"/>
+      <c r="B668" s="4"/>
+      <c r="D668" s="3"/>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669"/>
+      <c r="B669" s="4"/>
+      <c r="D669" s="3"/>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670"/>
+      <c r="B670" s="4"/>
+      <c r="D670" s="3"/>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671"/>
+      <c r="B671" s="4"/>
+      <c r="D671" s="3"/>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672"/>
+      <c r="B672" s="4"/>
+      <c r="D672" s="3"/>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673"/>
+      <c r="B673" s="4"/>
+      <c r="D673" s="3"/>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674"/>
+      <c r="B674" s="4"/>
+      <c r="D674" s="3"/>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675"/>
+      <c r="B675" s="4"/>
+      <c r="D675" s="3"/>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676"/>
+      <c r="B676" s="4"/>
+      <c r="D676" s="3"/>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677"/>
+      <c r="B677" s="4"/>
+      <c r="D677" s="3"/>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678"/>
+      <c r="B678" s="4"/>
+      <c r="D678" s="3"/>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679"/>
+      <c r="B679" s="4"/>
+      <c r="D679" s="3"/>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680"/>
+      <c r="B680" s="4"/>
+      <c r="D680" s="3"/>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681"/>
+      <c r="B681" s="4"/>
+      <c r="D681" s="3"/>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682"/>
+      <c r="B682" s="4"/>
+      <c r="D682" s="3"/>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683"/>
+      <c r="B683" s="4"/>
+      <c r="D683" s="3"/>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684"/>
+      <c r="B684" s="4"/>
+      <c r="D684" s="3"/>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685"/>
+      <c r="B685" s="4"/>
+      <c r="D685" s="3"/>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686"/>
+      <c r="B686" s="4"/>
+      <c r="D686" s="3"/>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687"/>
+      <c r="B687" s="4"/>
+      <c r="D687" s="3"/>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688"/>
+      <c r="B688" s="4"/>
+      <c r="D688" s="3"/>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689"/>
+      <c r="B689" s="4"/>
+      <c r="D689" s="3"/>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690"/>
+      <c r="B690" s="4"/>
+      <c r="D690" s="3"/>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691"/>
+      <c r="B691" s="4"/>
+      <c r="D691" s="3"/>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692"/>
+      <c r="B692" s="4"/>
+      <c r="D692" s="3"/>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693"/>
+      <c r="B693" s="4"/>
+      <c r="D693" s="3"/>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694"/>
+      <c r="B694" s="4"/>
+      <c r="D694" s="3"/>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695"/>
+      <c r="B695" s="4"/>
+      <c r="D695" s="3"/>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696"/>
+      <c r="B696" s="4"/>
+      <c r="D696" s="3"/>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697"/>
+      <c r="B697" s="4"/>
+      <c r="D697" s="3"/>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698"/>
+      <c r="B698" s="4"/>
+      <c r="D698" s="3"/>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699"/>
+      <c r="B699" s="4"/>
+      <c r="D699" s="3"/>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700"/>
+      <c r="B700" s="4"/>
+      <c r="D700" s="3"/>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701"/>
+      <c r="B701" s="4"/>
+      <c r="D701" s="3"/>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702"/>
+      <c r="B702" s="4"/>
+      <c r="D702" s="3"/>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703"/>
+      <c r="B703" s="4"/>
+      <c r="D703" s="3"/>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704"/>
+      <c r="B704" s="4"/>
+      <c r="D704" s="3"/>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705"/>
+      <c r="B705" s="4"/>
+      <c r="D705" s="3"/>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706"/>
+      <c r="B706" s="4"/>
+      <c r="D706" s="3"/>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707"/>
+      <c r="B707" s="4"/>
+      <c r="D707" s="3"/>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708"/>
+      <c r="B708" s="4"/>
+      <c r="D708" s="3"/>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709"/>
+      <c r="B709" s="4"/>
+      <c r="D709" s="3"/>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710"/>
+      <c r="B710" s="4"/>
+      <c r="D710" s="3"/>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711"/>
+      <c r="B711" s="4"/>
+      <c r="D711" s="3"/>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712"/>
+      <c r="B712" s="4"/>
+      <c r="D712" s="3"/>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713"/>
+      <c r="B713" s="4"/>
+      <c r="D713" s="3"/>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714"/>
+      <c r="B714" s="4"/>
+      <c r="D714" s="3"/>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715"/>
+      <c r="B715" s="4"/>
+      <c r="D715" s="3"/>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716"/>
+      <c r="B716" s="4"/>
+      <c r="D716" s="3"/>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717"/>
+      <c r="B717" s="4"/>
+      <c r="D717" s="3"/>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718"/>
+      <c r="B718" s="4"/>
+      <c r="D718" s="3"/>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719"/>
+      <c r="B719" s="4"/>
+      <c r="D719" s="3"/>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720"/>
+      <c r="B720" s="4"/>
+      <c r="D720" s="3"/>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721"/>
+      <c r="B721" s="4"/>
+      <c r="D721" s="3"/>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722"/>
+      <c r="B722" s="4"/>
+      <c r="D722" s="3"/>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723"/>
+      <c r="B723" s="4"/>
+      <c r="D723" s="3"/>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724"/>
+      <c r="B724" s="4"/>
+      <c r="D724" s="3"/>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725"/>
+      <c r="B725" s="4"/>
+      <c r="D725" s="3"/>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726"/>
+      <c r="B726" s="4"/>
+      <c r="D726" s="3"/>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727"/>
+      <c r="B727" s="4"/>
+      <c r="D727" s="3"/>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728"/>
+      <c r="B728" s="4"/>
+      <c r="D728" s="3"/>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729"/>
+      <c r="B729" s="4"/>
+      <c r="D729" s="3"/>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730"/>
+      <c r="B730" s="4"/>
+      <c r="D730" s="3"/>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731"/>
+      <c r="B731" s="4"/>
+      <c r="D731" s="3"/>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732"/>
+      <c r="B732" s="4"/>
+      <c r="D732" s="3"/>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733"/>
+      <c r="B733" s="4"/>
+      <c r="D733" s="3"/>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734"/>
+      <c r="B734" s="4"/>
+      <c r="D734" s="3"/>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735"/>
+      <c r="B735" s="4"/>
+      <c r="D735" s="3"/>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736"/>
+      <c r="B736" s="4"/>
+      <c r="D736" s="3"/>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737"/>
+      <c r="B737" s="4"/>
+      <c r="D737" s="3"/>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738"/>
+      <c r="B738" s="4"/>
+      <c r="D738" s="3"/>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739"/>
+      <c r="B739" s="4"/>
+      <c r="D739" s="3"/>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740"/>
+      <c r="B740" s="4"/>
+      <c r="D740" s="3"/>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741"/>
+      <c r="B741" s="4"/>
+      <c r="D741" s="3"/>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742"/>
+      <c r="B742" s="4"/>
+      <c r="D742" s="3"/>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743"/>
+      <c r="B743" s="4"/>
+      <c r="D743" s="3"/>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744"/>
+      <c r="B744" s="4"/>
+      <c r="D744" s="3"/>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745"/>
+      <c r="B745" s="4"/>
+      <c r="D745" s="3"/>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746"/>
+      <c r="B746" s="4"/>
+      <c r="D746" s="3"/>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747"/>
+      <c r="B747" s="4"/>
+      <c r="D747" s="3"/>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748"/>
+      <c r="B748" s="4"/>
+      <c r="D748" s="3"/>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749"/>
+      <c r="B749" s="4"/>
+      <c r="D749" s="3"/>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750"/>
+      <c r="B750" s="4"/>
+      <c r="D750" s="3"/>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751"/>
+      <c r="B751" s="4"/>
+      <c r="D751" s="3"/>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752"/>
+      <c r="B752" s="4"/>
+      <c r="D752" s="3"/>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753"/>
+      <c r="B753" s="4"/>
+      <c r="D753" s="3"/>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754"/>
+      <c r="B754" s="4"/>
+      <c r="D754" s="3"/>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755"/>
+      <c r="B755" s="4"/>
+      <c r="D755" s="3"/>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756"/>
+      <c r="B756" s="4"/>
+      <c r="D756" s="3"/>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757"/>
+      <c r="B757" s="4"/>
+      <c r="D757" s="3"/>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758"/>
+      <c r="B758" s="4"/>
+      <c r="D758" s="3"/>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759"/>
+      <c r="B759" s="4"/>
+      <c r="D759" s="3"/>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760"/>
+      <c r="B760" s="4"/>
+      <c r="D760" s="3"/>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761"/>
+      <c r="B761" s="4"/>
+      <c r="D761" s="3"/>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762"/>
+      <c r="B762" s="4"/>
+      <c r="D762" s="3"/>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763"/>
+      <c r="B763" s="4"/>
+      <c r="D763" s="3"/>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764"/>
+      <c r="B764" s="4"/>
+      <c r="D764" s="3"/>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765"/>
+      <c r="B765" s="4"/>
+      <c r="D765" s="3"/>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766"/>
+      <c r="B766" s="4"/>
+      <c r="D766" s="3"/>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767"/>
+      <c r="B767" s="4"/>
+      <c r="D767" s="3"/>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768"/>
+      <c r="B768" s="4"/>
+      <c r="D768" s="3"/>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769"/>
+      <c r="B769" s="4"/>
+      <c r="D769" s="3"/>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770"/>
+      <c r="B770" s="4"/>
+      <c r="D770" s="3"/>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771"/>
+      <c r="B771" s="4"/>
+      <c r="D771" s="3"/>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772"/>
+      <c r="B772" s="4"/>
+      <c r="D772" s="3"/>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773"/>
+      <c r="B773" s="4"/>
+      <c r="D773" s="3"/>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774"/>
+      <c r="B774" s="4"/>
+      <c r="D774" s="3"/>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775"/>
+      <c r="B775" s="4"/>
+      <c r="D775" s="3"/>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776"/>
+      <c r="B776" s="4"/>
+      <c r="D776" s="3"/>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777"/>
+      <c r="B777" s="4"/>
+      <c r="D777" s="3"/>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778"/>
+      <c r="B778" s="4"/>
+      <c r="D778" s="3"/>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779"/>
+      <c r="B779" s="4"/>
+      <c r="D779" s="3"/>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780"/>
+      <c r="B780" s="4"/>
+      <c r="D780" s="3"/>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781"/>
+      <c r="B781" s="4"/>
+      <c r="D781" s="3"/>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782"/>
+      <c r="B782" s="4"/>
+      <c r="D782" s="3"/>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783"/>
+      <c r="B783" s="4"/>
+      <c r="D783" s="3"/>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784"/>
+      <c r="B784" s="4"/>
+      <c r="D784" s="3"/>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785"/>
+      <c r="B785" s="4"/>
+      <c r="D785" s="3"/>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786"/>
+      <c r="B786" s="4"/>
+      <c r="D786" s="3"/>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787"/>
+      <c r="B787" s="4"/>
+      <c r="D787" s="3"/>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788"/>
+      <c r="B788" s="4"/>
+      <c r="D788" s="3"/>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789"/>
+      <c r="B789" s="4"/>
+      <c r="D789" s="3"/>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790"/>
+      <c r="B790" s="4"/>
+      <c r="D790" s="3"/>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791"/>
+      <c r="B791" s="4"/>
+      <c r="D791" s="3"/>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792"/>
+      <c r="B792" s="4"/>
+      <c r="D792" s="3"/>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793"/>
+      <c r="B793" s="4"/>
+      <c r="D793" s="3"/>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794"/>
+      <c r="B794" s="4"/>
+      <c r="D794" s="3"/>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795"/>
+      <c r="B795" s="4"/>
+      <c r="D795" s="3"/>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796"/>
+      <c r="B796" s="4"/>
+      <c r="D796" s="3"/>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797"/>
+      <c r="B797" s="4"/>
+      <c r="D797" s="3"/>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A798"/>
+      <c r="B798" s="4"/>
+      <c r="D798" s="3"/>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799"/>
+      <c r="B799" s="4"/>
+      <c r="D799" s="3"/>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800"/>
+      <c r="B800" s="4"/>
+      <c r="D800" s="3"/>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801"/>
+      <c r="B801" s="4"/>
+      <c r="D801" s="3"/>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802"/>
+      <c r="B802" s="4"/>
+      <c r="D802" s="3"/>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803"/>
+      <c r="B803" s="4"/>
+      <c r="D803" s="3"/>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804"/>
+      <c r="B804" s="4"/>
+      <c r="D804" s="3"/>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805"/>
+      <c r="B805" s="4"/>
+      <c r="D805" s="3"/>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806"/>
+      <c r="B806" s="4"/>
+      <c r="D806" s="3"/>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807"/>
+      <c r="B807" s="4"/>
+      <c r="D807" s="3"/>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808"/>
+      <c r="B808" s="4"/>
+      <c r="D808" s="3"/>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809"/>
+      <c r="B809" s="4"/>
+      <c r="D809" s="3"/>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810"/>
+      <c r="B810" s="4"/>
+      <c r="D810" s="3"/>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811"/>
+      <c r="B811" s="4"/>
+      <c r="D811" s="3"/>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812"/>
+      <c r="B812" s="4"/>
+      <c r="D812" s="3"/>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813"/>
+      <c r="B813" s="4"/>
+      <c r="D813" s="3"/>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814"/>
+      <c r="B814" s="4"/>
+      <c r="D814" s="3"/>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815"/>
+      <c r="B815" s="4"/>
+      <c r="D815" s="3"/>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816"/>
+      <c r="B816" s="4"/>
+      <c r="D816" s="3"/>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817"/>
+      <c r="B817" s="4"/>
+      <c r="D817" s="3"/>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818"/>
+      <c r="B818" s="4"/>
+      <c r="D818" s="3"/>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819"/>
+      <c r="B819" s="4"/>
+      <c r="D819" s="3"/>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820"/>
+      <c r="B820" s="4"/>
+      <c r="D820" s="3"/>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821"/>
+      <c r="B821" s="4"/>
+      <c r="D821" s="3"/>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822"/>
+      <c r="B822" s="4"/>
+      <c r="D822" s="3"/>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823"/>
+      <c r="B823" s="4"/>
+      <c r="D823" s="3"/>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824"/>
+      <c r="B824" s="4"/>
+      <c r="D824" s="3"/>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825"/>
+      <c r="B825" s="4"/>
+      <c r="D825" s="3"/>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826"/>
+      <c r="B826" s="4"/>
+      <c r="D826" s="3"/>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827"/>
+      <c r="B827" s="4"/>
+      <c r="D827" s="3"/>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828"/>
+      <c r="B828" s="4"/>
+      <c r="D828" s="3"/>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829"/>
+      <c r="B829" s="4"/>
+      <c r="D829" s="3"/>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830"/>
+      <c r="B830" s="4"/>
+      <c r="D830" s="3"/>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831"/>
+      <c r="B831" s="4"/>
+      <c r="D831" s="3"/>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832"/>
+      <c r="B832" s="4"/>
+      <c r="D832" s="3"/>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833"/>
+      <c r="B833" s="4"/>
+      <c r="D833" s="3"/>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834"/>
+      <c r="B834" s="4"/>
+      <c r="D834" s="3"/>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835"/>
+      <c r="B835" s="4"/>
+      <c r="D835" s="3"/>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836"/>
+      <c r="B836" s="4"/>
+      <c r="D836" s="3"/>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837"/>
+      <c r="B837" s="4"/>
+      <c r="D837" s="3"/>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838"/>
+      <c r="B838" s="4"/>
+      <c r="D838" s="3"/>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839"/>
+      <c r="B839" s="4"/>
+      <c r="D839" s="3"/>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840"/>
+      <c r="B840" s="4"/>
+      <c r="D840" s="3"/>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841"/>
+      <c r="B841" s="4"/>
+      <c r="D841" s="3"/>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842"/>
+      <c r="B842" s="4"/>
+      <c r="D842" s="3"/>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843"/>
+      <c r="B843" s="4"/>
+      <c r="D843" s="3"/>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844"/>
+      <c r="B844" s="4"/>
+      <c r="D844" s="3"/>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845"/>
+      <c r="B845" s="4"/>
+      <c r="D845" s="3"/>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846"/>
+      <c r="B846" s="4"/>
+      <c r="D846" s="3"/>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847"/>
+      <c r="B847" s="4"/>
+      <c r="D847" s="3"/>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848"/>
+      <c r="B848" s="4"/>
+      <c r="D848" s="3"/>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849"/>
+      <c r="B849" s="4"/>
+      <c r="D849" s="3"/>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850"/>
+      <c r="B850" s="4"/>
+      <c r="D850" s="3"/>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851"/>
+      <c r="B851" s="4"/>
+      <c r="D851" s="3"/>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852"/>
+      <c r="B852" s="4"/>
+      <c r="D852" s="3"/>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853"/>
+      <c r="B853" s="4"/>
+      <c r="D853" s="3"/>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854"/>
+      <c r="B854" s="4"/>
+      <c r="D854" s="3"/>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855"/>
+      <c r="B855" s="4"/>
+      <c r="D855" s="3"/>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856"/>
+      <c r="B856" s="4"/>
+      <c r="D856" s="3"/>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857"/>
+      <c r="B857" s="4"/>
+      <c r="D857" s="3"/>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858"/>
+      <c r="B858" s="4"/>
+      <c r="D858" s="3"/>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859"/>
+      <c r="B859" s="4"/>
+      <c r="D859" s="3"/>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860"/>
+      <c r="B860" s="4"/>
+      <c r="D860" s="3"/>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861"/>
+      <c r="B861" s="4"/>
+      <c r="D861" s="3"/>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862"/>
+      <c r="B862" s="4"/>
+      <c r="D862" s="3"/>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863"/>
+      <c r="B863" s="4"/>
+      <c r="D863" s="3"/>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864"/>
+      <c r="B864" s="4"/>
+      <c r="D864" s="3"/>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865"/>
+      <c r="B865" s="4"/>
+      <c r="D865" s="3"/>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866"/>
+      <c r="B866" s="4"/>
+      <c r="D866" s="3"/>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867"/>
+      <c r="B867" s="4"/>
+      <c r="D867" s="3"/>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868"/>
+      <c r="B868" s="4"/>
+      <c r="D868" s="3"/>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869"/>
+      <c r="B869" s="4"/>
+      <c r="D869" s="3"/>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870"/>
+      <c r="B870" s="4"/>
+      <c r="D870" s="3"/>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871"/>
+      <c r="B871" s="4"/>
+      <c r="D871" s="3"/>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872"/>
+      <c r="B872" s="4"/>
+      <c r="D872" s="3"/>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873"/>
+      <c r="B873" s="4"/>
+      <c r="D873" s="3"/>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874"/>
+      <c r="B874" s="4"/>
+      <c r="D874" s="3"/>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875"/>
+      <c r="B875" s="4"/>
+      <c r="D875" s="3"/>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876"/>
+      <c r="B876" s="4"/>
+      <c r="D876" s="3"/>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877"/>
+      <c r="B877" s="4"/>
+      <c r="D877" s="3"/>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878"/>
+      <c r="B878" s="4"/>
+      <c r="D878" s="3"/>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879"/>
+      <c r="B879" s="4"/>
+      <c r="D879" s="3"/>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880"/>
+      <c r="B880" s="4"/>
+      <c r="D880" s="3"/>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881"/>
+      <c r="B881" s="4"/>
+      <c r="D881" s="3"/>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882"/>
+      <c r="B882" s="4"/>
+      <c r="D882" s="3"/>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883"/>
+      <c r="B883" s="4"/>
+      <c r="D883" s="3"/>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884"/>
+      <c r="B884" s="4"/>
+      <c r="D884" s="3"/>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885"/>
+      <c r="B885" s="4"/>
+      <c r="D885" s="3"/>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886"/>
+      <c r="B886" s="4"/>
+      <c r="D886" s="3"/>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887"/>
+      <c r="B887" s="4"/>
+      <c r="D887" s="3"/>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888"/>
+      <c r="B888" s="4"/>
+      <c r="D888" s="3"/>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889"/>
+      <c r="B889" s="4"/>
+      <c r="D889" s="3"/>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890"/>
+      <c r="B890" s="4"/>
+      <c r="D890" s="3"/>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891"/>
+      <c r="B891" s="4"/>
+      <c r="D891" s="3"/>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892"/>
+      <c r="B892" s="4"/>
+      <c r="D892" s="3"/>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893"/>
+      <c r="B893" s="4"/>
+      <c r="D893" s="3"/>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894"/>
+      <c r="B894" s="4"/>
+      <c r="D894" s="3"/>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895"/>
+      <c r="B895" s="4"/>
+      <c r="D895" s="3"/>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896"/>
+      <c r="B896" s="4"/>
+      <c r="D896" s="3"/>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897"/>
+      <c r="B897" s="4"/>
+      <c r="D897" s="3"/>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898"/>
+      <c r="B898" s="4"/>
+      <c r="D898" s="3"/>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899"/>
+      <c r="B899" s="4"/>
+      <c r="D899" s="3"/>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900"/>
+      <c r="B900" s="4"/>
+      <c r="D900" s="3"/>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901"/>
+      <c r="B901" s="4"/>
+      <c r="D901" s="3"/>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902"/>
+      <c r="B902" s="4"/>
+      <c r="D902" s="3"/>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903"/>
+      <c r="B903" s="4"/>
+      <c r="D903" s="3"/>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904"/>
+      <c r="B904" s="4"/>
+      <c r="D904" s="3"/>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905"/>
+      <c r="B905" s="4"/>
+      <c r="D905" s="3"/>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906"/>
+      <c r="B906" s="4"/>
+      <c r="D906" s="3"/>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907"/>
+      <c r="B907" s="4"/>
+      <c r="D907" s="3"/>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908"/>
+      <c r="B908" s="4"/>
+      <c r="D908" s="3"/>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909"/>
+      <c r="B909" s="4"/>
+      <c r="D909" s="3"/>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910"/>
+      <c r="B910" s="4"/>
+      <c r="D910" s="3"/>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911"/>
+      <c r="B911" s="4"/>
+      <c r="D911" s="3"/>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912"/>
+      <c r="B912" s="4"/>
+      <c r="D912" s="3"/>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913"/>
+      <c r="B913" s="4"/>
+      <c r="D913" s="3"/>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914"/>
+      <c r="B914" s="4"/>
+      <c r="D914" s="3"/>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915"/>
+      <c r="B915" s="4"/>
+      <c r="D915" s="3"/>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916"/>
+      <c r="B916" s="4"/>
+      <c r="D916" s="3"/>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917"/>
+      <c r="B917" s="4"/>
+      <c r="D917" s="3"/>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918"/>
+      <c r="B918" s="4"/>
+      <c r="D918" s="3"/>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919"/>
+      <c r="B919" s="4"/>
+      <c r="D919" s="3"/>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920"/>
+      <c r="B920" s="4"/>
+      <c r="D920" s="3"/>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921"/>
+      <c r="B921" s="4"/>
+      <c r="D921" s="3"/>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922"/>
+      <c r="B922" s="4"/>
+      <c r="D922" s="3"/>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923"/>
+      <c r="B923" s="4"/>
+      <c r="D923" s="3"/>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924"/>
+      <c r="B924" s="4"/>
+      <c r="D924" s="3"/>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925"/>
+      <c r="B925" s="4"/>
+      <c r="D925" s="3"/>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926"/>
+      <c r="B926" s="4"/>
+      <c r="D926" s="3"/>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927"/>
+      <c r="B927" s="4"/>
+      <c r="D927" s="3"/>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928"/>
+      <c r="B928" s="4"/>
+      <c r="D928" s="3"/>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929"/>
+      <c r="B929" s="4"/>
+      <c r="D929" s="3"/>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930"/>
+      <c r="B930" s="4"/>
+      <c r="D930" s="3"/>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931"/>
+      <c r="B931" s="4"/>
+      <c r="D931" s="3"/>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932"/>
+      <c r="B932" s="4"/>
+      <c r="D932" s="3"/>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933"/>
+      <c r="B933" s="4"/>
+      <c r="D933" s="3"/>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934"/>
+      <c r="B934" s="4"/>
+      <c r="D934" s="3"/>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935"/>
+      <c r="B935" s="4"/>
+      <c r="D935" s="3"/>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936"/>
+      <c r="B936" s="4"/>
+      <c r="D936" s="3"/>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937"/>
+      <c r="B937" s="4"/>
+      <c r="D937" s="3"/>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938"/>
+      <c r="B938" s="4"/>
+      <c r="D938" s="3"/>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939"/>
+      <c r="B939" s="4"/>
+      <c r="D939" s="3"/>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940"/>
+      <c r="B940" s="4"/>
+      <c r="D940" s="3"/>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941"/>
+      <c r="B941" s="4"/>
+      <c r="D941" s="3"/>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942"/>
+      <c r="B942" s="4"/>
+      <c r="D942" s="3"/>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943"/>
+      <c r="B943" s="4"/>
+      <c r="D943" s="3"/>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944"/>
+      <c r="B944" s="4"/>
+      <c r="D944" s="3"/>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945"/>
+      <c r="B945" s="4"/>
+      <c r="D945" s="3"/>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946"/>
+      <c r="B946" s="4"/>
+      <c r="D946" s="3"/>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947"/>
+      <c r="B947" s="4"/>
+      <c r="D947" s="3"/>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948"/>
+      <c r="B948" s="4"/>
+      <c r="D948" s="3"/>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949"/>
+      <c r="B949" s="4"/>
+      <c r="D949" s="3"/>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950"/>
+      <c r="B950" s="4"/>
+      <c r="D950" s="3"/>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951"/>
+      <c r="B951" s="4"/>
+      <c r="D951" s="3"/>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952"/>
+      <c r="B952" s="4"/>
+      <c r="D952" s="3"/>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953"/>
+      <c r="B953" s="4"/>
+      <c r="D953" s="3"/>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954"/>
+      <c r="B954" s="4"/>
+      <c r="D954" s="3"/>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955"/>
+      <c r="B955" s="4"/>
+      <c r="D955" s="3"/>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956"/>
+      <c r="B956" s="4"/>
+      <c r="D956" s="3"/>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957"/>
+      <c r="B957" s="4"/>
+      <c r="D957" s="3"/>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958"/>
+      <c r="B958" s="4"/>
+      <c r="D958" s="3"/>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959"/>
+      <c r="B959" s="4"/>
+      <c r="D959" s="3"/>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960"/>
+      <c r="B960" s="4"/>
+      <c r="D960" s="3"/>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961"/>
+      <c r="B961" s="4"/>
+      <c r="D961" s="3"/>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962"/>
+      <c r="B962" s="4"/>
+      <c r="D962" s="3"/>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963"/>
+      <c r="B963" s="4"/>
+      <c r="D963" s="3"/>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964"/>
+      <c r="B964" s="4"/>
+      <c r="D964" s="3"/>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965"/>
+      <c r="B965" s="4"/>
+      <c r="D965" s="3"/>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966"/>
+      <c r="B966" s="4"/>
+      <c r="D966" s="3"/>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967"/>
+      <c r="B967" s="4"/>
+      <c r="D967" s="3"/>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968"/>
+      <c r="B968" s="4"/>
+      <c r="D968" s="3"/>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969"/>
+      <c r="B969" s="4"/>
+      <c r="D969" s="3"/>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970"/>
+      <c r="B970" s="4"/>
+      <c r="D970" s="3"/>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971"/>
+      <c r="B971" s="4"/>
+      <c r="D971" s="3"/>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972"/>
+      <c r="B972" s="4"/>
+      <c r="D972" s="3"/>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973"/>
+      <c r="B973" s="4"/>
+      <c r="D973" s="3"/>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974"/>
+      <c r="B974" s="4"/>
+      <c r="D974" s="3"/>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975"/>
+      <c r="B975" s="4"/>
+      <c r="D975" s="3"/>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976"/>
+      <c r="B976" s="4"/>
+      <c r="D976" s="3"/>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977"/>
+      <c r="B977" s="4"/>
+      <c r="D977" s="3"/>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978"/>
+      <c r="B978" s="4"/>
+      <c r="D978" s="3"/>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979"/>
+      <c r="B979" s="4"/>
+      <c r="D979" s="3"/>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980"/>
+      <c r="B980" s="4"/>
+      <c r="D980" s="3"/>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981"/>
+      <c r="B981" s="4"/>
+      <c r="D981" s="3"/>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982"/>
+      <c r="B982" s="4"/>
+      <c r="D982" s="3"/>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983"/>
+      <c r="B983" s="4"/>
+      <c r="D983" s="3"/>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984"/>
+      <c r="B984" s="4"/>
+      <c r="D984" s="3"/>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985"/>
+      <c r="B985" s="4"/>
+      <c r="D985" s="3"/>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986"/>
+      <c r="B986" s="4"/>
+      <c r="D986" s="3"/>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987"/>
+      <c r="B987" s="4"/>
+      <c r="D987" s="3"/>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988"/>
+      <c r="B988" s="4"/>
+      <c r="D988" s="3"/>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989"/>
+      <c r="B989" s="4"/>
+      <c r="D989" s="3"/>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990"/>
+      <c r="B990" s="4"/>
+      <c r="D990" s="3"/>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991"/>
+      <c r="B991" s="4"/>
+      <c r="D991" s="3"/>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992"/>
+      <c r="B992" s="4"/>
+      <c r="D992" s="3"/>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993"/>
+      <c r="B993" s="4"/>
+      <c r="D993" s="3"/>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994"/>
+      <c r="B994" s="4"/>
+      <c r="D994" s="3"/>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995"/>
+      <c r="B995" s="4"/>
+      <c r="D995" s="3"/>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996"/>
+      <c r="B996" s="4"/>
+      <c r="D996" s="3"/>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997"/>
+      <c r="B997" s="4"/>
+      <c r="D997" s="3"/>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998"/>
+      <c r="B998" s="4"/>
+      <c r="D998" s="3"/>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999"/>
+      <c r="B999" s="4"/>
+      <c r="D999" s="3"/>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000"/>
+      <c r="B1000" s="4"/>
+      <c r="D1000" s="3"/>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001"/>
+      <c r="B1001" s="4"/>
+      <c r="D1001" s="3"/>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002"/>
+      <c r="B1002" s="4"/>
+      <c r="D1002" s="3"/>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003"/>
+      <c r="B1003" s="4"/>
+      <c r="D1003" s="3"/>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004"/>
+      <c r="B1004" s="4"/>
+      <c r="D1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005"/>
+      <c r="B1005" s="4"/>
+      <c r="D1005" s="3"/>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006"/>
+      <c r="B1006" s="4"/>
+      <c r="D1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007"/>
+      <c r="B1007" s="4"/>
+      <c r="D1007" s="3"/>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008"/>
+      <c r="B1008" s="4"/>
+      <c r="D1008" s="3"/>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009"/>
+      <c r="B1009" s="4"/>
+      <c r="D1009" s="3"/>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010"/>
+      <c r="B1010" s="4"/>
+      <c r="D1010" s="3"/>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011"/>
+      <c r="B1011" s="4"/>
+      <c r="D1011" s="3"/>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012"/>
+      <c r="B1012" s="4"/>
+      <c r="D1012" s="3"/>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013"/>
+      <c r="B1013" s="4"/>
+      <c r="D1013" s="3"/>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014"/>
+      <c r="B1014" s="4"/>
+      <c r="D1014" s="3"/>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015"/>
+      <c r="B1015" s="4"/>
+      <c r="D1015" s="3"/>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016"/>
+      <c r="B1016" s="4"/>
+      <c r="D1016" s="3"/>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017"/>
+      <c r="B1017" s="4"/>
+      <c r="D1017" s="3"/>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018"/>
+      <c r="B1018" s="4"/>
+      <c r="D1018" s="3"/>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019"/>
+      <c r="B1019" s="4"/>
+      <c r="D1019" s="3"/>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020"/>
+      <c r="B1020" s="4"/>
+      <c r="D1020" s="3"/>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021"/>
+      <c r="B1021" s="4"/>
+      <c r="D1021" s="3"/>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022"/>
+      <c r="B1022" s="4"/>
+      <c r="D1022" s="3"/>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023"/>
+      <c r="B1023" s="4"/>
+      <c r="D1023" s="3"/>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024"/>
+      <c r="B1024" s="4"/>
+      <c r="D1024" s="3"/>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025"/>
+      <c r="B1025" s="4"/>
+      <c r="D1025" s="3"/>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026"/>
+      <c r="B1026" s="4"/>
+      <c r="D1026" s="3"/>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027"/>
+      <c r="B1027" s="4"/>
+      <c r="D1027" s="3"/>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028"/>
+      <c r="B1028" s="4"/>
+      <c r="D1028" s="3"/>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029"/>
+      <c r="B1029" s="4"/>
+      <c r="D1029" s="3"/>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030"/>
+      <c r="B1030" s="4"/>
+      <c r="D1030" s="3"/>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031"/>
+      <c r="B1031" s="4"/>
+      <c r="D1031" s="3"/>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032"/>
+      <c r="B1032" s="4"/>
+      <c r="D1032" s="3"/>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033"/>
+      <c r="B1033" s="4"/>
+      <c r="D1033" s="3"/>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034"/>
+      <c r="B1034" s="4"/>
+      <c r="D1034" s="3"/>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035"/>
+      <c r="B1035" s="4"/>
+      <c r="D1035" s="3"/>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036"/>
+      <c r="B1036" s="4"/>
+      <c r="D1036" s="3"/>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037"/>
+      <c r="B1037" s="4"/>
+      <c r="D1037" s="3"/>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038"/>
+      <c r="B1038" s="4"/>
+      <c r="D1038" s="3"/>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039"/>
+      <c r="B1039" s="4"/>
+      <c r="D1039" s="3"/>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040"/>
+      <c r="B1040" s="4"/>
+      <c r="D1040" s="3"/>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041"/>
+      <c r="B1041" s="4"/>
+      <c r="D1041" s="3"/>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042"/>
+      <c r="B1042" s="4"/>
+      <c r="D1042" s="3"/>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043"/>
+      <c r="B1043" s="4"/>
+      <c r="D1043" s="3"/>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044"/>
+      <c r="B1044" s="4"/>
+      <c r="D1044" s="3"/>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045"/>
+      <c r="B1045" s="4"/>
+      <c r="D1045" s="3"/>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046"/>
+      <c r="B1046" s="4"/>
+      <c r="D1046" s="3"/>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047"/>
+      <c r="B1047" s="4"/>
+      <c r="D1047" s="3"/>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048"/>
+      <c r="B1048" s="4"/>
+      <c r="D1048" s="3"/>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049"/>
+      <c r="B1049" s="4"/>
+      <c r="D1049" s="3"/>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050"/>
+      <c r="B1050" s="4"/>
+      <c r="D1050" s="3"/>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051"/>
+      <c r="B1051" s="4"/>
+      <c r="D1051" s="3"/>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052"/>
+      <c r="B1052" s="4"/>
+      <c r="D1052" s="3"/>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053"/>
+      <c r="B1053" s="4"/>
+      <c r="D1053" s="3"/>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054"/>
+      <c r="B1054" s="4"/>
+      <c r="D1054" s="3"/>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055"/>
+      <c r="B1055" s="4"/>
+      <c r="D1055" s="3"/>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056"/>
+      <c r="B1056" s="4"/>
+      <c r="D1056" s="3"/>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057"/>
+      <c r="B1057" s="4"/>
+      <c r="D1057" s="3"/>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058"/>
+      <c r="B1058" s="4"/>
+      <c r="D1058" s="3"/>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059"/>
+      <c r="B1059" s="4"/>
+      <c r="D1059" s="3"/>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060"/>
+      <c r="B1060" s="4"/>
+      <c r="D1060" s="3"/>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061"/>
+      <c r="B1061" s="4"/>
+      <c r="D1061" s="3"/>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062"/>
+      <c r="B1062" s="4"/>
+      <c r="D1062" s="3"/>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063"/>
+      <c r="B1063" s="4"/>
+      <c r="D1063" s="3"/>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064"/>
+      <c r="B1064" s="4"/>
+      <c r="D1064" s="3"/>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065"/>
+      <c r="B1065" s="4"/>
+      <c r="D1065" s="3"/>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066"/>
+      <c r="B1066" s="4"/>
+      <c r="D1066" s="3"/>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067"/>
+      <c r="B1067" s="4"/>
+      <c r="D1067" s="3"/>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068"/>
+      <c r="B1068" s="4"/>
+      <c r="D1068" s="3"/>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069"/>
+      <c r="B1069" s="4"/>
+      <c r="D1069" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D1069">
+    <sortCondition descending="1" ref="D2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>